--- a/Data/Clientes/Seguros.xlsx
+++ b/Data/Clientes/Seguros.xlsx
@@ -8895,13 +8895,13 @@
         <v>Group CIO &amp; COO</v>
       </c>
       <c r="C314" t="str">
-        <v>Abaco International Loss Adjusters</v>
+        <v>ABACO INTERNATIONAL LOSS ADJUSTERS</v>
       </c>
       <c r="E314" t="str">
         <v>vpastor@abacoadjusters.com</v>
       </c>
       <c r="H314">
-        <v>4048</v>
+        <v>4330</v>
       </c>
       <c r="I314">
         <v>5663</v>
